--- a/510k/表/游戏分类.xlsx
+++ b/510k/表/游戏分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16470" windowHeight="9540"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>名称</t>
+  </si>
   <si>
     <t>类型</t>
   </si>
@@ -81,6 +84,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>mz</t>
+  </si>
+  <si>
     <t>lx</t>
   </si>
   <si>
@@ -103,6 +109,15 @@
   </si>
   <si>
     <t>bwdfjc</t>
+  </si>
+  <si>
+    <t>初级场</t>
+  </si>
+  <si>
+    <t>中级场</t>
+  </si>
+  <si>
+    <t>高级场</t>
   </si>
 </sst>
 </file>
@@ -110,12 +125,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +139,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -131,11 +154,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,51 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,46 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -261,7 +253,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,67 +292,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,115 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +501,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,6 +545,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,48 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -580,148 +588,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,20 +1085,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1115,34 +1123,232 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>10000</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>10000</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>10000</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>10000</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
